--- a/ProjectData.xlsx
+++ b/ProjectData.xlsx
@@ -5,60 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusjo\Documents\Homework\Dependable Systems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusjo\Documents\Homework\Dependable Systems\DS_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28372D0A-2BBE-4011-9E34-B5F9F4617532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD5F484-E822-403C-AB09-DC86A6FFAB8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="11670" windowWidth="29040" windowHeight="15840" xr2:uid="{3C336683-77FF-48A0-A7D6-833CDC8D03F7}"/>
+    <workbookView xWindow="-26850" yWindow="13740" windowWidth="21600" windowHeight="11385" xr2:uid="{3C336683-77FF-48A0-A7D6-833CDC8D03F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$2</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$C$2:$C$3</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$E$2:$E$6</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$G$12</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$C$2:$C$6</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$D$2:$D$5</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$D$2:$D$6</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$E$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$E$2:$E$6</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$F$1</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$F$12</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$C$2:$C$6</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$F$2:$F$6</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$G$1</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$G$2:$G$6</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$D$2:$D$6</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$E$14</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$E$15:$E$16</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$E$16</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$E$2:$E$6</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$F$2:$F$6</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$G$2:$G$6</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$B$2</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$C$2:$C$3</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Sheet1!$C$2:$C$6</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">Sheet1!$D$1:$E$1</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">Sheet1!$D$1:$G$1</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">Sheet1!$D$2:$D$3</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">Sheet1!$D$2:$D$5</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">Sheet1!$D$2:$D$6</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">Sheet1!$D$4:$D$5</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$D$1:$E$1</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">Sheet1!$E$2:$E$6</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">Sheet1!$G$12</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$D$1:$G$1</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$D$2:$D$3</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$D$2:$D$5</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$D$2:$D$6</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$D$4:$D$5</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -79,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t>sqrt</t>
   </si>
@@ -88,9 +44,6 @@
   </si>
   <si>
     <t>language:</t>
-  </si>
-  <si>
-    <t>c</t>
   </si>
   <si>
     <t>SDC count</t>
@@ -123,7 +76,13 @@
     <t>avg</t>
   </si>
   <si>
-    <t>c++</t>
+    <t>AVERAGES</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>C++</t>
   </si>
 </sst>
 </file>
@@ -176,6 +135,1109 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Results of 2000 Fault Injections</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Benign Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$4:$I$5</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>C++</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$4:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1690.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1713</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-9758-447C-B51A-B562765A4A5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SDC count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$4:$I$5</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>C++</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$4:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>204.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>193.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9758-447C-B51A-B562765A4A5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Crash Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$4:$I$5</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>C++</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$4:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>93.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>84.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9758-447C-B51A-B562765A4A5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hang Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$4:$I$5</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>C++</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$4:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-9758-447C-B51A-B562765A4A5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="2091567232"/>
+        <c:axId val="2091587200"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2091567232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2091587200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2091587200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2091567232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C49D13E-17AD-4D37-903B-FCC1F13E45A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -475,10 +1537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53458342-0C7D-4471-9195-1FAB4E98B0A0}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,9 +1551,14 @@
     <col min="6" max="6" width="14.140625" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -499,27 +1566,27 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <v>212</v>
@@ -533,10 +1600,13 @@
       <c r="G2">
         <v>13</v>
       </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>216</v>
@@ -550,10 +1620,22 @@
       <c r="G3">
         <v>13</v>
       </c>
+      <c r="J3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>181</v>
@@ -567,10 +1649,29 @@
       <c r="G4">
         <v>11</v>
       </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4">
+        <f>D7</f>
+        <v>204.2</v>
+      </c>
+      <c r="K4">
+        <f>E7</f>
+        <v>93.2</v>
+      </c>
+      <c r="L4">
+        <f>F7</f>
+        <v>1690.2</v>
+      </c>
+      <c r="M4">
+        <f>G7</f>
+        <v>12.4</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>226</v>
@@ -584,10 +1685,29 @@
       <c r="G5">
         <v>15</v>
       </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5">
+        <f>D14</f>
+        <v>193.4</v>
+      </c>
+      <c r="K5">
+        <f>E14</f>
+        <v>84.2</v>
+      </c>
+      <c r="L5">
+        <f>F14</f>
+        <v>1713</v>
+      </c>
+      <c r="M5">
+        <f>G14</f>
+        <v>9.4</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <v>186</v>
@@ -602,9 +1722,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7">
         <f>AVERAGE(D2:D6)</f>
@@ -623,15 +1743,15 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9">
         <v>190</v>
@@ -646,37 +1766,85 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>206</v>
+      </c>
+      <c r="E10">
+        <v>93</v>
+      </c>
+      <c r="F10">
+        <v>1693</v>
+      </c>
+      <c r="G10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
         <v>6</v>
       </c>
+      <c r="D11">
+        <v>192</v>
+      </c>
+      <c r="E11">
+        <v>81</v>
+      </c>
+      <c r="F11">
+        <v>1721</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
         <v>7</v>
       </c>
+      <c r="D12">
+        <v>183</v>
+      </c>
+      <c r="E12">
+        <v>87</v>
+      </c>
+      <c r="F12">
+        <v>1716</v>
+      </c>
+      <c r="G12">
+        <v>14</v>
+      </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
         <v>8</v>
       </c>
+      <c r="D13">
+        <v>196</v>
+      </c>
+      <c r="E13">
+        <v>71</v>
+      </c>
+      <c r="F13">
+        <v>1722</v>
+      </c>
+      <c r="G13">
+        <v>11</v>
+      </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14">
         <f>AVERAGE(D9:D13)</f>
-        <v>190</v>
+        <v>193.4</v>
       </c>
       <c r="E14">
         <f>AVERAGE(E9:E13)</f>
-        <v>89</v>
+        <v>84.2</v>
       </c>
       <c r="F14">
         <f>AVERAGE(F9:F13)</f>
@@ -684,10 +1852,11 @@
       </c>
       <c r="G14">
         <f>AVERAGE(G9:G13)</f>
-        <v>8</v>
+        <v>9.4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/ProjectData.xlsx
+++ b/ProjectData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusjo\Documents\Homework\Dependable Systems\DS_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD5F484-E822-403C-AB09-DC86A6FFAB8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE140C9F-BB87-4CD9-9BCD-7564DFA1694B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26850" yWindow="13740" windowWidth="21600" windowHeight="11385" xr2:uid="{3C336683-77FF-48A0-A7D6-833CDC8D03F7}"/>
+    <workbookView xWindow="-28920" yWindow="11670" windowWidth="29040" windowHeight="15840" xr2:uid="{3C336683-77FF-48A0-A7D6-833CDC8D03F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
   <si>
     <t>sqrt</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>C++</t>
+  </si>
+  <si>
+    <t>stdev</t>
   </si>
 </sst>
 </file>
@@ -1537,10 +1540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53458342-0C7D-4471-9195-1FAB4E98B0A0}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1689,19 +1692,19 @@
         <v>15</v>
       </c>
       <c r="J5">
-        <f>D14</f>
+        <f>D15</f>
         <v>193.4</v>
       </c>
       <c r="K5">
-        <f>E14</f>
+        <f>E15</f>
         <v>84.2</v>
       </c>
       <c r="L5">
-        <f>F14</f>
+        <f>F15</f>
         <v>1713</v>
       </c>
       <c r="M5">
-        <f>G14</f>
+        <f>G15</f>
         <v>9.4</v>
       </c>
     </row>
@@ -1743,41 +1746,45 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>190</v>
-      </c>
-      <c r="E9">
-        <v>89</v>
-      </c>
-      <c r="F9">
-        <v>1713</v>
-      </c>
-      <c r="G9">
-        <v>8</v>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <f>_xlfn.STDEV.S(D2:D6)</f>
+        <v>19.651971911235776</v>
+      </c>
+      <c r="E8">
+        <f>_xlfn.STDEV.S(E2:E6)</f>
+        <v>6.6858058601787116</v>
+      </c>
+      <c r="F8">
+        <f>_xlfn.STDEV.S(F2:F6)</f>
+        <v>17.880156598866801</v>
+      </c>
+      <c r="G8">
+        <f>_xlfn.STDEV.S(G2:G6)</f>
+        <v>1.9493588689617958</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="E10">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F10">
-        <v>1693</v>
+        <v>1713</v>
       </c>
       <c r="G10">
         <v>8</v>
@@ -1785,74 +1792,112 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="E11">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F11">
-        <v>1721</v>
+        <v>1693</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="E12">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F12">
-        <v>1716</v>
+        <v>1721</v>
       </c>
       <c r="G12">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="E13">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="F13">
-        <v>1722</v>
+        <v>1716</v>
       </c>
       <c r="G13">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>196</v>
+      </c>
+      <c r="E14">
+        <v>71</v>
+      </c>
+      <c r="F14">
+        <v>1722</v>
+      </c>
+      <c r="G14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
         <v>12</v>
       </c>
-      <c r="D14">
-        <f>AVERAGE(D9:D13)</f>
+      <c r="D15">
+        <f>AVERAGE(D10:D14)</f>
         <v>193.4</v>
       </c>
-      <c r="E14">
-        <f>AVERAGE(E9:E13)</f>
+      <c r="E15">
+        <f>AVERAGE(E10:E14)</f>
         <v>84.2</v>
       </c>
-      <c r="F14">
-        <f>AVERAGE(F9:F13)</f>
+      <c r="F15">
+        <f>AVERAGE(F10:F14)</f>
         <v>1713</v>
       </c>
-      <c r="G14">
-        <f>AVERAGE(G9:G13)</f>
+      <c r="G15">
+        <f>AVERAGE(G10:G14)</f>
         <v>9.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16">
+        <f>_xlfn.STDEV.S(D10:D14)</f>
+        <v>8.4734880657259435</v>
+      </c>
+      <c r="E16">
+        <f>_xlfn.STDEV.S(E10:E14)</f>
+        <v>8.5556998544829757</v>
+      </c>
+      <c r="F16">
+        <f>_xlfn.STDEV.S(F10:F14)</f>
+        <v>11.76860229593982</v>
+      </c>
+      <c r="G16">
+        <f>_xlfn.STDEV.S(G10:G14)</f>
+        <v>3.1304951684997051</v>
       </c>
     </row>
   </sheetData>

--- a/ProjectData.xlsx
+++ b/ProjectData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusjo\Documents\Homework\Dependable Systems\DS_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE140C9F-BB87-4CD9-9BCD-7564DFA1694B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E42EE08-3373-4332-8EE7-3B0505913079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="11670" windowWidth="29040" windowHeight="15840" xr2:uid="{3C336683-77FF-48A0-A7D6-833CDC8D03F7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="19">
   <si>
     <t>sqrt</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>stdev</t>
+  </si>
+  <si>
+    <t>bs</t>
+  </si>
+  <si>
+    <t>C (cbe)</t>
   </si>
 </sst>
 </file>
@@ -175,7 +181,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Results of 2000 Fault Injections</a:t>
+              <a:t>Results of 10,000 Fault Injections (sqrt)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -217,7 +223,7 @@
         <c:grouping val="percentStacked"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -232,7 +238,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -242,29 +250,100 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$I$4:$I$5</c:f>
+              <c:f>Sheet1!$I$4:$I$6</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>C</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>C++</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C (cbe)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$4:$L$5</c:f>
+              <c:f>Sheet1!$L$4:$L$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1690.2</c:v>
+                  <c:v>8466.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1713</c:v>
+                  <c:v>8556.7999999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8185</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9758-447C-B51A-B562765A4A5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SDC count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$4:$I$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>C++</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C (cbe)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$4:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1011.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>962.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>806.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -277,14 +356,14 @@
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$3</c:f>
+              <c:f>Sheet1!$K$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SDC count</c:v>
+                  <c:v>Crash Count</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -301,29 +380,35 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$I$4:$I$5</c:f>
+              <c:f>Sheet1!$I$4:$I$6</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>C</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>C++</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C (cbe)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$4:$J$5</c:f>
+              <c:f>Sheet1!$K$4:$K$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>204.2</c:v>
+                  <c:v>471.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>193.4</c:v>
+                  <c:v>434.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>956</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -331,65 +416,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9758-447C-B51A-B562765A4A5C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$K$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Crash Count</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$I$4:$I$5</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>C</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>C++</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$K$4:$K$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>93.2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>84.2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9758-447C-B51A-B562765A4A5C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -419,36 +445,42 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$I$4:$I$5</c:f>
+              <c:f>Sheet1!$I$4:$I$6</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>C</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>C++</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C (cbe)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$4:$M$5</c:f>
+              <c:f>Sheet1!$M$4:$M$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>12.4</c:v>
+                  <c:v>50.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.4</c:v>
+                  <c:v>45.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-9758-447C-B51A-B562765A4A5C}"/>
+              <c16:uniqueId val="{00000007-594B-41F0-B826-7610D6483790}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -520,6 +552,539 @@
         <c:axId val="2091587200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.70000000000000007"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2091567232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Results of 10,000 Fault Injections (binary</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> search</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Benign Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$J$34:$J$35</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>C (cbe)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$34:$M$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>5973.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6886.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-38C7-49AF-AA24-2483524C8087}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Crash Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$J$34:$J$35</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>C (cbe)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$34:$L$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3947.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1687.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-38C7-49AF-AA24-2483524C8087}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hang Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$J$34:$J$35</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>C (cbe)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$34:$N$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-38C7-49AF-AA24-2483524C8087}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SDC count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$J$34:$J$35</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>C (cbe)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$34:$K$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>19.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1425.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-38C7-49AF-AA24-2483524C8087}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="2091567232"/>
+        <c:axId val="2091587200"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2091567232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2091587200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2091587200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -697,6 +1262,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
@@ -1202,20 +1807,525 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1235,6 +2345,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{342E8021-E3A0-40BF-A2C5-B2B94D671798}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1540,10 +2688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53458342-0C7D-4471-9195-1FAB4E98B0A0}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1592,16 +2740,16 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <v>212</v>
+        <v>1031</v>
       </c>
       <c r="E2">
-        <v>84</v>
+        <v>476</v>
       </c>
       <c r="F2">
-        <v>1691</v>
+        <v>8437</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
@@ -1612,16 +2760,16 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>216</v>
+        <v>1037</v>
       </c>
       <c r="E3">
-        <v>96</v>
+        <v>503</v>
       </c>
       <c r="F3">
-        <v>1675</v>
+        <v>8414</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="J3" t="s">
         <v>3</v>
@@ -1641,35 +2789,35 @@
         <v>6</v>
       </c>
       <c r="D4">
-        <v>181</v>
+        <v>1028</v>
       </c>
       <c r="E4">
-        <v>96</v>
+        <v>441</v>
       </c>
       <c r="F4">
-        <v>1712</v>
+        <v>8477</v>
       </c>
       <c r="G4">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="I4" t="s">
         <v>14</v>
       </c>
       <c r="J4">
         <f>D7</f>
-        <v>204.2</v>
+        <v>1011.2</v>
       </c>
       <c r="K4">
         <f>E7</f>
-        <v>93.2</v>
+        <v>471.8</v>
       </c>
       <c r="L4">
         <f>F7</f>
-        <v>1690.2</v>
+        <v>8466.4</v>
       </c>
       <c r="M4">
         <f>G7</f>
-        <v>12.4</v>
+        <v>50.6</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -1677,35 +2825,35 @@
         <v>7</v>
       </c>
       <c r="D5">
-        <v>226</v>
+        <v>1011</v>
       </c>
       <c r="E5">
-        <v>89</v>
+        <v>481</v>
       </c>
       <c r="F5">
-        <v>1670</v>
+        <v>8461</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
         <v>15</v>
       </c>
       <c r="J5">
         <f>D15</f>
-        <v>193.4</v>
+        <v>962.8</v>
       </c>
       <c r="K5">
         <f>E15</f>
-        <v>84.2</v>
+        <v>434.8</v>
       </c>
       <c r="L5">
         <f>F15</f>
-        <v>1713</v>
+        <v>8556.7999999999993</v>
       </c>
       <c r="M5">
         <f>G15</f>
-        <v>9.4</v>
+        <v>45.6</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1713,16 +2861,35 @@
         <v>8</v>
       </c>
       <c r="D6">
-        <v>186</v>
+        <v>949</v>
       </c>
       <c r="E6">
-        <v>101</v>
+        <v>458</v>
       </c>
       <c r="F6">
-        <v>1703</v>
+        <v>8543</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>50</v>
+      </c>
+      <c r="I6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6">
+        <f>D23</f>
+        <v>806.8</v>
+      </c>
+      <c r="K6">
+        <f>E23</f>
+        <v>956</v>
+      </c>
+      <c r="L6">
+        <f>F23</f>
+        <v>8185</v>
+      </c>
+      <c r="M6">
+        <f>G23</f>
+        <v>52.2</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -1731,19 +2898,19 @@
       </c>
       <c r="D7">
         <f>AVERAGE(D2:D6)</f>
-        <v>204.2</v>
+        <v>1011.2</v>
       </c>
       <c r="E7">
         <f>AVERAGE(E2:E6)</f>
-        <v>93.2</v>
+        <v>471.8</v>
       </c>
       <c r="F7">
         <f>AVERAGE(F2:F6)</f>
-        <v>1690.2</v>
+        <v>8466.4</v>
       </c>
       <c r="G7">
         <f>AVERAGE(G2:G6)</f>
-        <v>12.4</v>
+        <v>50.6</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -1752,19 +2919,19 @@
       </c>
       <c r="D8">
         <f>_xlfn.STDEV.S(D2:D6)</f>
-        <v>19.651971911235776</v>
+        <v>36.086008368895556</v>
       </c>
       <c r="E8">
         <f>_xlfn.STDEV.S(E2:E6)</f>
-        <v>6.6858058601787116</v>
+        <v>23.530830839560256</v>
       </c>
       <c r="F8">
         <f>_xlfn.STDEV.S(F2:F6)</f>
-        <v>17.880156598866801</v>
+        <v>49.038760180086122</v>
       </c>
       <c r="G8">
         <f>_xlfn.STDEV.S(G2:G6)</f>
-        <v>1.9493588689617958</v>
+        <v>4.3358966777357599</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1778,16 +2945,16 @@
         <v>4</v>
       </c>
       <c r="D10">
-        <v>190</v>
+        <v>898</v>
       </c>
       <c r="E10">
-        <v>89</v>
+        <v>457</v>
       </c>
       <c r="F10">
-        <v>1713</v>
+        <v>8599</v>
       </c>
       <c r="G10">
-        <v>8</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1795,16 +2962,16 @@
         <v>5</v>
       </c>
       <c r="D11">
-        <v>206</v>
+        <v>991</v>
       </c>
       <c r="E11">
-        <v>93</v>
+        <v>433</v>
       </c>
       <c r="F11">
-        <v>1693</v>
+        <v>8522</v>
       </c>
       <c r="G11">
-        <v>8</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1812,16 +2979,16 @@
         <v>6</v>
       </c>
       <c r="D12">
-        <v>192</v>
+        <v>975</v>
       </c>
       <c r="E12">
-        <v>81</v>
+        <v>435</v>
       </c>
       <c r="F12">
-        <v>1721</v>
+        <v>8546</v>
       </c>
       <c r="G12">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1829,16 +2996,16 @@
         <v>7</v>
       </c>
       <c r="D13">
-        <v>183</v>
+        <v>965</v>
       </c>
       <c r="E13">
-        <v>87</v>
+        <v>409</v>
       </c>
       <c r="F13">
-        <v>1716</v>
+        <v>8578</v>
       </c>
       <c r="G13">
-        <v>14</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1846,16 +3013,16 @@
         <v>8</v>
       </c>
       <c r="D14">
-        <v>196</v>
+        <v>985</v>
       </c>
       <c r="E14">
-        <v>71</v>
+        <v>440</v>
       </c>
       <c r="F14">
-        <v>1722</v>
+        <v>8539</v>
       </c>
       <c r="G14">
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1864,19 +3031,19 @@
       </c>
       <c r="D15">
         <f>AVERAGE(D10:D14)</f>
-        <v>193.4</v>
+        <v>962.8</v>
       </c>
       <c r="E15">
         <f>AVERAGE(E10:E14)</f>
-        <v>84.2</v>
+        <v>434.8</v>
       </c>
       <c r="F15">
         <f>AVERAGE(F10:F14)</f>
-        <v>1713</v>
+        <v>8556.7999999999993</v>
       </c>
       <c r="G15">
         <f>AVERAGE(G10:G14)</f>
-        <v>9.4</v>
+        <v>45.6</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1885,19 +3052,555 @@
       </c>
       <c r="D16">
         <f>_xlfn.STDEV.S(D10:D14)</f>
-        <v>8.4734880657259435</v>
+        <v>37.552629734813515</v>
       </c>
       <c r="E16">
         <f>_xlfn.STDEV.S(E10:E14)</f>
-        <v>8.5556998544829757</v>
+        <v>17.23948955160796</v>
       </c>
       <c r="F16">
         <f>_xlfn.STDEV.S(F10:F14)</f>
-        <v>11.76860229593982</v>
+        <v>31.123945765278542</v>
       </c>
       <c r="G16">
         <f>_xlfn.STDEV.S(G10:G14)</f>
-        <v>3.1304951684997051</v>
+        <v>6.5421708935184641</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>785</v>
+      </c>
+      <c r="E18">
+        <v>973</v>
+      </c>
+      <c r="F18">
+        <v>8191</v>
+      </c>
+      <c r="G18">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>827</v>
+      </c>
+      <c r="E19">
+        <v>944</v>
+      </c>
+      <c r="F19">
+        <v>8176</v>
+      </c>
+      <c r="G19">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>809</v>
+      </c>
+      <c r="E20">
+        <v>936</v>
+      </c>
+      <c r="F20">
+        <v>8210</v>
+      </c>
+      <c r="G20">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>802</v>
+      </c>
+      <c r="E21">
+        <v>929</v>
+      </c>
+      <c r="F21">
+        <v>8215</v>
+      </c>
+      <c r="G21">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>811</v>
+      </c>
+      <c r="E22">
+        <v>998</v>
+      </c>
+      <c r="F22">
+        <v>8133</v>
+      </c>
+      <c r="G22">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23">
+        <f>AVERAGE(D18:D22)</f>
+        <v>806.8</v>
+      </c>
+      <c r="E23">
+        <f>AVERAGE(E18:E22)</f>
+        <v>956</v>
+      </c>
+      <c r="F23">
+        <f>AVERAGE(F18:F22)</f>
+        <v>8185</v>
+      </c>
+      <c r="G23">
+        <f>AVERAGE(G18:G22)</f>
+        <v>52.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24">
+        <f>_xlfn.STDEV.S(D18:D22)</f>
+        <v>15.238110119040352</v>
+      </c>
+      <c r="E24">
+        <f>_xlfn.STDEV.S(E18:E22)</f>
+        <v>28.83574171059243</v>
+      </c>
+      <c r="F24">
+        <f>_xlfn.STDEV.S(F18:F22)</f>
+        <v>32.962099447699018</v>
+      </c>
+      <c r="G24">
+        <f>_xlfn.STDEV.S(G18:G22)</f>
+        <v>4.7644516998286379</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" t="s">
+        <v>9</v>
+      </c>
+      <c r="M33" t="s">
+        <v>10</v>
+      </c>
+      <c r="N33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>14</v>
+      </c>
+      <c r="E34">
+        <v>4027</v>
+      </c>
+      <c r="F34">
+        <v>5659</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="J34" t="s">
+        <v>14</v>
+      </c>
+      <c r="K34">
+        <f>D39</f>
+        <v>19.399999999999999</v>
+      </c>
+      <c r="L34">
+        <f>E39</f>
+        <v>3947.4</v>
+      </c>
+      <c r="M34">
+        <f>F39</f>
+        <v>5973.2</v>
+      </c>
+      <c r="N34">
+        <f>G39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>21</v>
+      </c>
+      <c r="E35">
+        <v>4042</v>
+      </c>
+      <c r="F35">
+        <v>5937</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="J35" t="s">
+        <v>18</v>
+      </c>
+      <c r="K35">
+        <f>D55</f>
+        <v>1425.6</v>
+      </c>
+      <c r="L35">
+        <f>E55</f>
+        <v>1687.4</v>
+      </c>
+      <c r="M35">
+        <f>F55</f>
+        <v>6886.4</v>
+      </c>
+      <c r="N35">
+        <f>G55</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36">
+        <v>22</v>
+      </c>
+      <c r="E36">
+        <v>4005</v>
+      </c>
+      <c r="F36">
+        <v>5973</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37">
+        <v>20</v>
+      </c>
+      <c r="E37">
+        <v>3841</v>
+      </c>
+      <c r="F37">
+        <v>6139</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38">
+        <v>20</v>
+      </c>
+      <c r="E38">
+        <v>3822</v>
+      </c>
+      <c r="F38">
+        <v>6158</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39">
+        <f>AVERAGE(D34:D38)</f>
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E39">
+        <f>AVERAGE(E34:E38)</f>
+        <v>3947.4</v>
+      </c>
+      <c r="F39">
+        <f>AVERAGE(F34:F38)</f>
+        <v>5973.2</v>
+      </c>
+      <c r="G39">
+        <f>AVERAGE(G34:G38)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40">
+        <f>_xlfn.STDEV.S(D34:D38)</f>
+        <v>3.1304951684997073</v>
+      </c>
+      <c r="E40">
+        <f>_xlfn.STDEV.S(E34:E38)</f>
+        <v>106.82836701925197</v>
+      </c>
+      <c r="F40">
+        <f>_xlfn.STDEV.S(F34:F38)</f>
+        <v>201.0427815167707</v>
+      </c>
+      <c r="G40">
+        <f>_xlfn.STDEV.S(G34:G38)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" t="e">
+        <f>AVERAGE(D42:D46)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E47" t="e">
+        <f>AVERAGE(E42:E46)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F47" t="e">
+        <f>AVERAGE(F42:F46)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G47" t="e">
+        <f>AVERAGE(G42:G46)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" t="e">
+        <f>_xlfn.STDEV.S(D42:D46)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E48" t="e">
+        <f>_xlfn.STDEV.S(E42:E46)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F48" t="e">
+        <f>_xlfn.STDEV.S(F42:F46)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G48" t="e">
+        <f>_xlfn.STDEV.S(G42:G46)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50">
+        <v>1479</v>
+      </c>
+      <c r="E50">
+        <v>1643</v>
+      </c>
+      <c r="F50">
+        <v>6878</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51">
+        <v>1398</v>
+      </c>
+      <c r="E51">
+        <v>1714</v>
+      </c>
+      <c r="F51">
+        <v>6888</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52">
+        <v>1384</v>
+      </c>
+      <c r="E52">
+        <v>1709</v>
+      </c>
+      <c r="F52">
+        <v>6907</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53">
+        <v>1446</v>
+      </c>
+      <c r="E53">
+        <v>1645</v>
+      </c>
+      <c r="F53">
+        <v>6906</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54">
+        <v>1421</v>
+      </c>
+      <c r="E54">
+        <v>1726</v>
+      </c>
+      <c r="F54">
+        <v>6853</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55">
+        <f>AVERAGE(D50:D54)</f>
+        <v>1425.6</v>
+      </c>
+      <c r="E55">
+        <f>AVERAGE(E50:E54)</f>
+        <v>1687.4</v>
+      </c>
+      <c r="F55">
+        <f>AVERAGE(F50:F54)</f>
+        <v>6886.4</v>
+      </c>
+      <c r="G55">
+        <f>AVERAGE(G50:G54)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56">
+        <f>_xlfn.STDEV.S(D50:D54)</f>
+        <v>38.017101415021102</v>
+      </c>
+      <c r="E56">
+        <f>_xlfn.STDEV.S(E50:E54)</f>
+        <v>40.103615797082433</v>
+      </c>
+      <c r="F56">
+        <f>_xlfn.STDEV.S(F50:F54)</f>
+        <v>22.345021816950638</v>
+      </c>
+      <c r="G56">
+        <f>_xlfn.STDEV.S(G50:G54)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
